--- a/currentbuild/StructureDefinition-no-Linn-Encounter.xlsx
+++ b/currentbuild/StructureDefinition-no-Linn-Encounter.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-11-10T13:37:27+00:00</t>
+    <t>2025-11-10T14:08:13+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
